--- a/data/trans_dic/POLIPATOLOGÍA-Clase-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGÍA-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -568,62 +569,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>14,6%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>12,28%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7,22%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>32,11%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>12,35%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>14,8%</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>12,25%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>14,69%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>9,64%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>39,07%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>13,64%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>10,83%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>13,36%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>8,39%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>35,63%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>12,97%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>12,81%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,09; 12,03</t>
+          <t>12,17; 17,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>27,39; 36,13</t>
+          <t>9,38; 15,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,88; 15,11</t>
+          <t>5,31; 9,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,7; 17,63</t>
+          <t>27,56; 36,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,84; 13,54</t>
+          <t>10,26; 15,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>34,88; 44,11</t>
+          <t>11,92; 18,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,24; 16,61</t>
+          <t>7,15; 12,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,76; 12,84</t>
+          <t>34,47; 43,55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,16; 11,77</t>
+          <t>11,7; 15,25</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>32,64; 38,89</t>
+          <t>11,03; 15,84</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11,14; 14,98</t>
+          <t>6,71; 10,28</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,4; 14,55</t>
+          <t>32,72; 38,95</t>
         </is>
       </c>
     </row>
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>17,22%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>12,76%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7,7%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>32,46%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>13,89%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>16,31%</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>14,26%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>13,17%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>7,62%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>51,45%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>12,28%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>13,49%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>15,52%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
+          <t>12,94%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>7,66%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>43,38%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>13,14%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>14,66%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,59; 12,35</t>
+          <t>13,94; 21,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>26,42; 38,92</t>
+          <t>9,64; 16,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,96; 17,09</t>
+          <t>5,29; 11,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,21; 19,93</t>
+          <t>27,01; 39,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,75; 11,05</t>
+          <t>11,74; 17,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>46,03; 56,11</t>
+          <t>10,3; 16,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,81; 15,19</t>
+          <t>5,35; 10,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,3; 15,97</t>
+          <t>46,51; 56,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,04; 10,95</t>
+          <t>13,36; 18,35</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>39,33; 47,19</t>
+          <t>10,64; 15,27</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,38; 15,38</t>
+          <t>5,97; 9,65</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,95; 16,78</t>
+          <t>39,38; 47,36</t>
         </is>
       </c>
     </row>
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,02%</t>
+          <t>22,51%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>8,36%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>9,82%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>45,74%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>15,06%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>20,23%</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>17,87%</t>
+          <t>24,73%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>28,08%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>15,44%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>75,74%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>26,84%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>21,66%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>15,22%</t>
+          <t>23,13%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>11,72%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>11,59%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>56,96%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>18,23%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>20,63%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,47; 18,06</t>
+          <t>19,77; 25,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>38,05; 54,47</t>
+          <t>2,42; 18,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,36; 18,87</t>
+          <t>7,16; 13,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,0; 22,79</t>
+          <t>37,97; 53,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,61; 24,99</t>
+          <t>20,22; 29,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>66,94; 83,82</t>
+          <t>21,3; 35,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,89; 32,45</t>
+          <t>10,48; 21,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,1; 26,02</t>
+          <t>66,21; 83,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,28; 18,74</t>
+          <t>20,73; 25,75</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>49,55; 62,94</t>
+          <t>3,97; 21,65</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>13,84; 21,48</t>
+          <t>9,07; 14,85</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,57; 22,75</t>
+          <t>49,4; 63,03</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,53%</t>
+          <t>21,39%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>13,15%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>14,3%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>37,07%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>15,67%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>20,73%</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>20,7%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>58,71%</t>
+          <t>41,22%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>24,4%</t>
+          <t>10,79%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,57%</t>
+          <t>58,79%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,02%</t>
+          <t>21,04%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>47,75%</t>
+          <t>28,39%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>19,77%</t>
+          <t>12,52%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>20,14%</t>
+          <t>47,78%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,74; 18,78</t>
+          <t>18,75; 24,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>30,75; 43,0</t>
+          <t>10,86; 15,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,86; 17,77</t>
+          <t>11,33; 17,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,37; 23,17</t>
+          <t>31,02; 43,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,9; 15,34</t>
+          <t>18,17; 23,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>52,43; 64,77</t>
+          <t>12,37; 75,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,69; 48,93</t>
+          <t>8,46; 13,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,4; 21,88</t>
+          <t>52,59; 64,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,19; 16,14</t>
+          <t>19,33; 23,09</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>43,3; 52,53</t>
+          <t>12,59; 58,12</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,58; 35,82</t>
+          <t>10,6; 14,87</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,56; 21,94</t>
+          <t>42,63; 52,01</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>16,15%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>10,37%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8,13%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>24,39%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>14,46%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>15,55%</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>19,7%</t>
+          <t>26,5%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>22,95%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>17,33%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>60,84%</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>28,07%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>24,91%</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>22,72%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
+          <t>18,77%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>12,79%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>47,63%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>22,98%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>21,35%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,85; 14,12</t>
+          <t>12,58; 20,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,06; 34,35</t>
+          <t>7,09; 15,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,5; 17,47</t>
+          <t>5,57; 12,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,24; 18,68</t>
+          <t>16,26; 35,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,45; 25,17</t>
+          <t>23,41; 30,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>50,7; 68,97</t>
+          <t>13,24; 29,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>25,08; 31,01</t>
+          <t>13,45; 23,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,02; 28,01</t>
+          <t>50,89; 68,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,28; 18,22</t>
+          <t>20,34; 25,58</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>41,05; 55,11</t>
+          <t>13,0; 22,74</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>20,91; 25,32</t>
+          <t>10,11; 16,27</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>19,16; 23,37</t>
+          <t>40,7; 54,47</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>5,17%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>15,71%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,68%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>16,78%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>14,72%</t>
+          <t>25,04%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>43,06%</t>
+          <t>19,85%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>21,29%</t>
+          <t>11,78%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>21,5%</t>
+          <t>44,16%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>19,55%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>32,79%</t>
+          <t>15,06%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>16,75%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>15,77%</t>
+          <t>34,14%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>2,8; 9,34</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0,28; 3,1</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>0; 11,83</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>7,71; 33,11</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,74; 3,3</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,1; 6,22</t>
+          <t>7,68; 34,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,99; 37,23</t>
+          <t>21,65; 28,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>33,99; 52,15</t>
+          <t>16,87; 23,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,9; 23,61</t>
+          <t>1,84; 38,07</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>18,86; 24,47</t>
+          <t>34,5; 52,39</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,08; 20,29</t>
+          <t>16,93; 22,29</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>25,76; 41,23</t>
+          <t>12,78; 17,82</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>14,89; 18,78</t>
+          <t>1,24; 22,93</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>13,52; 17,78</t>
+          <t>26,48; 42,01</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>11,88%</t>
+          <t>18,05%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>33,72%</t>
+          <t>10,58%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>9,69%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>33,86%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>20,19%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>51,82%</t>
+          <t>25,49%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>21,85%</t>
+          <t>11,13%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>18,54%</t>
+          <t>51,95%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>19,17%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>43,23%</t>
+          <t>18,26%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>17,91%</t>
+          <t>10,39%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>17,71%</t>
+          <t>43,37%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,45; 13,25</t>
+          <t>16,86; 19,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>31,07; 36,5</t>
+          <t>7,06; 12,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>12,33; 14,61</t>
+          <t>8,48; 10,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,68; 17,98</t>
+          <t>30,99; 36,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,14; 14,07</t>
+          <t>18,96; 21,5</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>49,1; 54,26</t>
+          <t>17,03; 47,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>19,21; 30,37</t>
+          <t>9,65; 12,51</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>17,54; 19,64</t>
+          <t>49,36; 54,51</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>11,18; 13,15</t>
+          <t>18,29; 20,11</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>41,27; 45,1</t>
+          <t>13,4; 30,48</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>16,39; 23,79</t>
+          <t>9,48; 11,47</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>16,97; 18,57</t>
+          <t>41,45; 45,18</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Polipatología</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>21191</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>45045</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>21323</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>66036</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>17540</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>43908</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>26661</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>82193</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>38731</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>88953</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>47984</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>148230</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>17675; 25277</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>34400; 56865</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15683; 28734</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>56667; 74911</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>14698; 21532</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>35631; 55787</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>19794; 35068</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>72526; 91631</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>33751; 43993</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>73416; 105429</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>38372; 58823</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>136126; 162038</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>13964</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>41342</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>15046</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>40556</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>15537</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>34242</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>17573</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>86971</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>29501</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>75585</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>32620</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>127526</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301; 17370</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>31244; 53133</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>10336; 21595</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>33745; 49190</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>12791; 18937</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>26779; 43654</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>12326; 24947</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>78627; 95554</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>25396; 34862</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>62124; 89190</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>25433; 41112</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>115761; 139231</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>36645</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>39669</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>17751</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>43985</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>15626</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>27396</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>12782</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>43477</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>52271</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>67066</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>30533</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>87463</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>32174; 41882</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11471; 88790</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>12937; 23972</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>36508; 51750</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>12779; 18945</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>20777; 35024</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8674; 18144</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>38008; 47976</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>46853; 58177</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>22730; 123885</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>23887; 39139</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>75861; 96785</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>36364</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>70494</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>44094</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>60472</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>36788</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>262639</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>34132</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>93416</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>73152</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>333134</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>78226</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>153889</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>31881; 41501</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>58222; 85569</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>34959; 54074</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>50608; 71767</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>32296; 41640</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>78849; 481345</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>26774; 42403</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>83567; 102497</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>67218; 80288</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>147690; 681941</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>66204; 92937</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>137276; 167505</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>12333</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>21894</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>12261</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>13099</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>35149</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>97313</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>26878</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>57459</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>47482</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>119207</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>39139</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>70557</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>9606; 15435</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>14966; 31986</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>8411; 18444</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>8735; 18934</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>31047; 40103</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>56128; 123044</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>20860; 35996</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>48061; 64848</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>42516; 53454</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>82569; 144438</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>30923; 49769</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>60298; 80699</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2326</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1626</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>6133</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>29528</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>97367</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1347</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>27976</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>31854</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>98993</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>1347</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>34109</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>1258; 4205</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>475; 5167</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1106</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2807; 12496</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>25523; 33633</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>82754; 113621</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>211; 4353</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>21857; 33190</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>27574; 36317</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>84007; 117095</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>258; 4766</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>26448; 41968</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>686</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>565</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>871</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>638</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>955</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1557</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>932</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1520</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>122823</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>220071</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>110475</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>230282</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>150169</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>562866</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>119374</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>391492</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>272992</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>782937</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>229849</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>621774</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>114738; 133027</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>146895; 261358</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>96753; 125000</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>210803; 249941</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>141024; 159905</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>376150; 1049548</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>103511; 134267</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>371985; 410781</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>260405; 286429</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>574441; 1307080</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>209871; 253810</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>594222; 647718</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/POLIPATOLOGÍA-Clase-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGÍA-Clase-trans_dic.xlsx
@@ -1435,7 +1435,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 1106</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">

--- a/data/trans_dic/POLIPATOLOGÍA-Clase-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGÍA-Clase-trans_dic.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polipatología</t>
+          <t>Polipatología (tasa de respuesta: 99,69%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1685,7 +1685,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polipatología</t>
+          <t>Polipatología (tasa de respuesta: 99,69%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/POLIPATOLOGÍA-Clase-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGÍA-Clase-trans_dic.xlsx
@@ -657,7 +657,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14,6%</t>
+          <t>12,57%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>13,43%</t>
+          <t>12,17%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -725,12 +725,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,17; 17,41</t>
+          <t>10,39; 15,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,38; 15,51</t>
+          <t>9,15; 15,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>27,56; 36,43</t>
+          <t>28,11; 36,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,26; 15,04</t>
+          <t>9,79; 14,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,92; 18,66</t>
+          <t>11,58; 18,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -760,17 +760,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>34,47; 43,55</t>
+          <t>34,96; 43,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,7; 15,25</t>
+          <t>10,62; 13,92</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11,03; 15,84</t>
+          <t>11,39; 15,78</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -780,7 +780,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>32,72; 38,95</t>
+          <t>32,45; 38,82</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>17,22%</t>
+          <t>15,3%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>14,26%</t>
+          <t>13,44%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>15,52%</t>
+          <t>14,23%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,94; 21,42</t>
+          <t>12,4; 18,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,64; 16,4</t>
+          <t>9,44; 16,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -880,17 +880,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>27,01; 39,37</t>
+          <t>26,15; 38,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,74; 17,38</t>
+          <t>10,83; 16,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,3; 16,78</t>
+          <t>10,29; 16,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -900,17 +900,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>46,51; 56,53</t>
+          <t>46,32; 56,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,36; 18,35</t>
+          <t>12,24; 16,53</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10,64; 15,27</t>
+          <t>10,73; 15,63</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>39,38; 47,36</t>
+          <t>39,64; 47,34</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>22,51%</t>
+          <t>21,19%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>24,73%</t>
+          <t>24,88%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>23,13%</t>
+          <t>22,25%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1005,12 +1005,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,77; 25,73</t>
+          <t>18,54; 24,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,42; 18,7</t>
+          <t>2,52; 18,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1020,17 +1020,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>37,97; 53,82</t>
+          <t>37,35; 53,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,22; 29,98</t>
+          <t>20,26; 29,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,3; 35,9</t>
+          <t>21,25; 35,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1040,17 +1040,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>66,21; 83,58</t>
+          <t>66,02; 83,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,73; 25,75</t>
+          <t>19,91; 24,8</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,97; 21,65</t>
+          <t>3,8; 21,65</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>49,4; 63,03</t>
+          <t>50,97; 63,09</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>21,39%</t>
+          <t>20,11%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,7%</t>
+          <t>19,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>21,04%</t>
+          <t>19,88%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,75; 24,41</t>
+          <t>17,68; 23,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,86; 15,96</t>
+          <t>10,81; 15,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1160,17 +1160,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>31,02; 43,99</t>
+          <t>30,72; 43,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,17; 23,43</t>
+          <t>17,23; 22,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,37; 75,54</t>
+          <t>12,41; 71,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1180,17 +1180,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>52,59; 64,5</t>
+          <t>52,21; 64,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,33; 23,09</t>
+          <t>18,29; 21,92</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,59; 58,12</t>
+          <t>12,59; 58,09</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>42,63; 52,01</t>
+          <t>43,22; 52,17</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>16,15%</t>
+          <t>15,09%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>26,5%</t>
+          <t>26,72%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>22,72%</t>
+          <t>22,41%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1285,12 +1285,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,58; 20,22</t>
+          <t>12,03; 18,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,09; 15,14</t>
+          <t>7,1; 14,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1300,17 +1300,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,26; 35,25</t>
+          <t>16,96; 35,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>23,41; 30,23</t>
+          <t>23,4; 30,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,24; 29,02</t>
+          <t>12,73; 28,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1320,17 +1320,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>50,89; 68,67</t>
+          <t>52,41; 69,27</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>20,34; 25,58</t>
+          <t>19,99; 24,97</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>13,0; 22,74</t>
+          <t>12,81; 22,49</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>40,7; 54,47</t>
+          <t>41,34; 54,82</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>25,04%</t>
+          <t>22,79%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>19,55%</t>
+          <t>16,55%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1425,12 +1425,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,8; 9,34</t>
+          <t>1,16; 5,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,28; 3,1</t>
+          <t>0,28; 2,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1440,17 +1440,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,68; 34,19</t>
+          <t>8,62; 33,48</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>21,65; 28,53</t>
+          <t>19,46; 26,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>16,87; 23,16</t>
+          <t>17,04; 23,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1460,17 +1460,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>34,5; 52,39</t>
+          <t>35,43; 53,04</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,93; 22,29</t>
+          <t>14,34; 19,12</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>12,78; 17,82</t>
+          <t>12,85; 17,57</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>26,48; 42,01</t>
+          <t>27,28; 42,72</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>16,11%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>20,19%</t>
+          <t>19,02%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>19,17%</t>
+          <t>17,64%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1565,12 +1565,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,86; 19,55</t>
+          <t>14,97; 17,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,06; 12,57</t>
+          <t>6,55; 12,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1580,17 +1580,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>30,99; 36,75</t>
+          <t>31,15; 36,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,96; 21,5</t>
+          <t>17,9; 20,29</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>17,03; 47,53</t>
+          <t>17,31; 44,43</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1600,17 +1600,17 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>49,36; 54,51</t>
+          <t>49,37; 54,87</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>18,29; 20,11</t>
+          <t>16,77; 18,5</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>13,4; 30,48</t>
+          <t>13,67; 30,75</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>41,45; 45,18</t>
+          <t>41,4; 45,23</t>
         </is>
       </c>
     </row>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21191</t>
+          <t>20393</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17540</t>
+          <t>19909</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -1915,7 +1915,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>38731</t>
+          <t>40302</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -1943,12 +1943,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>17675; 25277</t>
+          <t>16857; 24594</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>34400; 56865</t>
+          <t>33564; 56294</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1958,17 +1958,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>56667; 74911</t>
+          <t>57800; 74917</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>14698; 21532</t>
+          <t>16527; 24087</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>35631; 55787</t>
+          <t>34600; 55195</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -1978,17 +1978,17 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>72526; 91631</t>
+          <t>73553; 91720</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>33751; 43993</t>
+          <t>35174; 46101</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>73416; 105429</t>
+          <t>75834; 104996</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>136126; 162038</t>
+          <t>135002; 161516</t>
         </is>
       </c>
     </row>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13964</t>
+          <t>13808</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>15537</t>
+          <t>16471</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>29501</t>
+          <t>30279</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -2151,12 +2151,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11301; 17370</t>
+          <t>11190; 17087</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>31244; 53133</t>
+          <t>30599; 52195</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -2166,17 +2166,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>33745; 49190</t>
+          <t>32679; 47634</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12791; 18937</t>
+          <t>13276; 19907</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26779; 43654</t>
+          <t>26772; 43766</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -2186,17 +2186,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>78627; 95554</t>
+          <t>78295; 96057</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>25396; 34862</t>
+          <t>26054; 35181</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>62124; 89190</t>
+          <t>62688; 91280</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>115761; 139231</t>
+          <t>116535; 139185</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>36645</t>
+          <t>32503</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15626</t>
+          <t>15409</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -2331,7 +2331,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>52271</t>
+          <t>47912</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -2359,12 +2359,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>32174; 41882</t>
+          <t>28434; 36952</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>11471; 88790</t>
+          <t>11948; 87817</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -2374,17 +2374,17 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>36508; 51750</t>
+          <t>35911; 51492</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>12779; 18945</t>
+          <t>12545; 18354</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>20777; 35024</t>
+          <t>20735; 34486</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -2394,17 +2394,17 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>38008; 47976</t>
+          <t>37896; 47831</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>46853; 58177</t>
+          <t>42857; 53398</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>22730; 123885</t>
+          <t>21718; 123906</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>75861; 96785</t>
+          <t>78261; 96874</t>
         </is>
       </c>
     </row>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>36364</t>
+          <t>34283</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>36788</t>
+          <t>35988</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -2539,7 +2539,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>73152</t>
+          <t>70271</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>31881; 41501</t>
+          <t>30151; 39242</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>58222; 85569</t>
+          <t>57940; 85685</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2582,17 +2582,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>50608; 71767</t>
+          <t>50110; 71320</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>32296; 41640</t>
+          <t>31540; 40712</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>78849; 481345</t>
+          <t>79064; 458658</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -2602,17 +2602,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>83567; 102497</t>
+          <t>82959; 103199</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>67218; 80288</t>
+          <t>64650; 77484</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>147690; 681941</t>
+          <t>147774; 681590</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -2622,7 +2622,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>137276; 167505</t>
+          <t>139203; 168021</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12333</t>
+          <t>11139</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2727,7 +2727,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>35149</t>
+          <t>33462</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -2747,7 +2747,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>47482</t>
+          <t>44601</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -2775,12 +2775,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>9606; 15435</t>
+          <t>8878; 13771</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>14966; 31986</t>
+          <t>15003; 30760</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2790,17 +2790,17 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>8735; 18934</t>
+          <t>9107; 18986</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>31047; 40103</t>
+          <t>29312; 37779</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>56128; 123044</t>
+          <t>53956; 120156</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -2810,17 +2810,17 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>48061; 64848</t>
+          <t>49500; 65424</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>42516; 53454</t>
+          <t>39782; 49694</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>82569; 144438</t>
+          <t>81365; 142871</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>60298; 80699</t>
+          <t>61242; 81217</t>
         </is>
       </c>
     </row>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2326</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>29528</t>
+          <t>27892</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>31854</t>
+          <t>29392</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
@@ -2983,12 +2983,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1258; 4205</t>
+          <t>640; 2810</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>475; 5167</t>
+          <t>467; 4698</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -2998,17 +2998,17 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2807; 12496</t>
+          <t>3150; 12235</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>25523; 33633</t>
+          <t>23814; 32162</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>82754; 113621</t>
+          <t>83590; 113107</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -3018,17 +3018,17 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>21857; 33190</t>
+          <t>22446; 33599</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>27574; 36317</t>
+          <t>25455; 33957</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>84007; 117095</t>
+          <t>84437; 115513</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>26448; 41968</t>
+          <t>27248; 42675</t>
         </is>
       </c>
     </row>
@@ -3123,7 +3123,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>122823</t>
+          <t>113626</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -3143,7 +3143,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>150169</t>
+          <t>149131</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -3163,7 +3163,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>272992</t>
+          <t>262757</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
@@ -3191,12 +3191,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>114738; 133027</t>
+          <t>105556; 121591</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>146895; 261358</t>
+          <t>136154; 260118</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -3206,17 +3206,17 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>210803; 249941</t>
+          <t>211845; 249415</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>141024; 159905</t>
+          <t>140341; 159080</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>376150; 1049548</t>
+          <t>382214; 981207</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -3226,17 +3226,17 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>371985; 410781</t>
+          <t>371991; 413432</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>260405; 286429</t>
+          <t>249788; 275492</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>574441; 1307080</t>
+          <t>586300; 1318664</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>594222; 647718</t>
+          <t>593579; 648470</t>
         </is>
       </c>
     </row>
